--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3061752.515550071</v>
+        <v>3165932.150001144</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283173</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328534.791435719</v>
+        <v>8328534.79143572</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>183.1670124162903</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>236.4123960965135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.921463429351488</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +873,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>68.15344371974265</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>288.1408797919112</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>135.1036918617007</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.7919371191807</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>53.75581462508175</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>201.7306598811423</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>74.2511672348987</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1294,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>1.773982476025485</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>71.50977901234262</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>53.82913822149973</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>102.9630220374172</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>86.24032515900464</v>
+        <v>124.6209519256076</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>2.445727774094548</v>
+        <v>43.73846614325627</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>90.48716302792806</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>103.1686991936197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695514</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>36.22494343870568</v>
+        <v>67.96934215963584</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>113.4877306469552</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856538</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>158.186202829252</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444143</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>9.146142788182971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>38.19083539427249</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695514</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.0491732272593</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>45.6605461321801</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856538</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>213.6019919131841</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>66.25628701154712</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>173.5437604722325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2722.984276312613</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W2" t="n">
-        <v>2722.984276312613</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X2" t="n">
-        <v>2349.518518051533</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y2" t="n">
-        <v>1959.379186075721</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962484</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034577</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366697</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366697</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936224</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>2724.905882061867</v>
+        <v>1546.855613072372</v>
       </c>
       <c r="V4" t="n">
-        <v>2724.905882061867</v>
+        <v>1292.171124866485</v>
       </c>
       <c r="W4" t="n">
-        <v>2724.905882061867</v>
+        <v>1002.753954829525</v>
       </c>
       <c r="X4" t="n">
-        <v>2496.916331163849</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="Y4" t="n">
-        <v>2496.916331163849</v>
+        <v>774.7644039315074</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796418</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.1049005553748</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1591.479404021249</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1591.479404021249</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>1336.794915815362</v>
       </c>
       <c r="W7" t="n">
-        <v>902.4041387981149</v>
+        <v>1047.377745778402</v>
       </c>
       <c r="X7" t="n">
-        <v>674.4145879000976</v>
+        <v>1047.377745778402</v>
       </c>
       <c r="Y7" t="n">
-        <v>453.6220087565674</v>
+        <v>826.5851666348717</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.034709923658</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2144.895377947846</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.8675266085669</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C10" t="n">
-        <v>461.8675266085669</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962311</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1925.502646597558</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1925.502646597558</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.399779723202</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.715291517315</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.298121480354</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3085705823368</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5159914388066</v>
+        <v>807.9921361496623</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5306,7 +5308,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>3162.891787183563</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,55 +5649,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.8888553856866</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>639.9526724577797</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>489.836033045444</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5713,10 +5715,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159263</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756267</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756267</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438164</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998423</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3198.117713678993</v>
+        <v>3007.624207651098</v>
       </c>
       <c r="C22" t="n">
-        <v>3029.181530751086</v>
+        <v>2838.688024723191</v>
       </c>
       <c r="D22" t="n">
-        <v>2879.064891338751</v>
+        <v>2838.688024723191</v>
       </c>
       <c r="E22" t="n">
-        <v>2731.151797756358</v>
+        <v>2690.774931140797</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>2646.594662309225</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024105</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q22" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.9326143059</v>
+        <v>4471.231687421534</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.857387650098</v>
+        <v>4182.156460765732</v>
       </c>
       <c r="V22" t="n">
-        <v>3897.172899444211</v>
+        <v>3927.471972559845</v>
       </c>
       <c r="W22" t="n">
-        <v>3607.75572940725</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X22" t="n">
-        <v>3379.766178509233</v>
+        <v>3410.065251624867</v>
       </c>
       <c r="Y22" t="n">
-        <v>3379.766178509233</v>
+        <v>3189.272672481337</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,22 +6074,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>4349.531439530215</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>4060.456212874413</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>3805.771724668526</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>3805.771724668526</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>3577.782173770509</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>3356.989594626978</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6236,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438171</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>198.0274703142544</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568977</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028056</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.580456911439</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835325</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711968</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888038</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908935</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057736</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580262</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603203</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947401</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741514</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783226</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.021500885209</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.228921741679</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532796</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253728</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253728</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2037.278502225698</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1748.203275569896</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1493.51878736401</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1204.101617327049</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1204.101617327049</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3090381835191</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6926,19 +6928,19 @@
         <v>793.7736536168618</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.899304487672</v>
+        <v>3194.624135499465</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597652</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597652</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597652</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908935</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057736</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782959</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038347</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179775</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580262</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235167</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258108</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602306</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396419</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359459</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614415</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179116</v>
+        <v>3376.272600329705</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7202,22 +7204,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7260,19 +7262,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>705.9324428257305</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257305</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>555.815803413395</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>407.902709831002</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330918</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235167</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258108</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602306</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396419</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359459</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179116</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>2978.613657539998</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>3606.211621094605</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400744</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400744</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>363.7369613277388</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>363.7369613277388</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>363.7369613277388</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854708</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648822</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611861</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138439</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.502065570314</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>2913.946970978148</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>3511.3254586047</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517213</v>
+        <v>4138.923422159307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>302.45403664168</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>160.7422054838781</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W46" t="n">
-        <v>1683.601903741513</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.612352843496</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
   </sheetData>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>113.4176828771281</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>183.5599762991737</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>60.19363748756453</v>
+        <v>21.81301072096153</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>142.9753202488367</v>
+        <v>101.682581879675</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>126.9182872993602</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>65.31997266427226</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856538</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>250.2980548978852</v>
+        <v>218.5536561769551</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>35.12774237125714</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>59.21924749803614</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2749052347481</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856538</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>180.3938179578223</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>123.7828069546779</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856538</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>119.8635921600886</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>4.982661438910668</v>
       </c>
     </row>
     <row r="44">
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>15.00954930701842</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>45.04089287986227</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>717232.2660989771</v>
+        <v>717232.2660989772</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287551</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881572</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="C4" t="n">
+        <v>90964.01098815714</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.01098815708</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,7 +26435,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26445,16 +26447,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680594</v>
+        <v>11776.97621680579</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680581</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809231.1486458948</v>
+        <v>-809231.1486458952</v>
       </c>
       <c r="C6" t="n">
-        <v>519513.5970816974</v>
+        <v>519513.5970816975</v>
       </c>
       <c r="D6" t="n">
-        <v>519513.5970816979</v>
+        <v>519513.5970816975</v>
       </c>
       <c r="E6" t="n">
-        <v>267941.3068806874</v>
+        <v>267941.3068806878</v>
       </c>
       <c r="F6" t="n">
+        <v>593353.7686880428</v>
+      </c>
+      <c r="G6" t="n">
+        <v>593353.7686880428</v>
+      </c>
+      <c r="H6" t="n">
+        <v>593353.7686880425</v>
+      </c>
+      <c r="I6" t="n">
+        <v>593353.7686880422</v>
+      </c>
+      <c r="J6" t="n">
+        <v>375822.5662907651</v>
+      </c>
+      <c r="K6" t="n">
+        <v>593353.7686880424</v>
+      </c>
+      <c r="L6" t="n">
+        <v>593353.7686880424</v>
+      </c>
+      <c r="M6" t="n">
+        <v>508298.7407525307</v>
+      </c>
+      <c r="N6" t="n">
+        <v>593353.7686880423</v>
+      </c>
+      <c r="O6" t="n">
         <v>593353.7686880426</v>
-      </c>
-      <c r="G6" t="n">
-        <v>593353.7686880424</v>
-      </c>
-      <c r="H6" t="n">
-        <v>593353.7686880422</v>
-      </c>
-      <c r="I6" t="n">
-        <v>593353.7686880428</v>
-      </c>
-      <c r="J6" t="n">
-        <v>375822.5662907653</v>
-      </c>
-      <c r="K6" t="n">
-        <v>593353.7686880419</v>
-      </c>
-      <c r="L6" t="n">
-        <v>593353.7686880425</v>
-      </c>
-      <c r="M6" t="n">
-        <v>508298.7407525305</v>
-      </c>
-      <c r="N6" t="n">
-        <v>593353.7686880424</v>
-      </c>
-      <c r="O6" t="n">
-        <v>593353.7686880421</v>
       </c>
       <c r="P6" t="n">
         <v>593353.7686880422</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>199.5668292471903</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>91.33986237362143</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.9105167525858</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27591,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>218.0583944858702</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.59296187156934</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>219.5793497589823</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.0400430627566</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>165.7931346510875</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181.0031817823383</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>332.6248785068127</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>187.9950428554164</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>147.0748743397522</v>
       </c>
     </row>
     <row r="11">
@@ -28807,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -30001,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-5.759950151119559e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31613,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31835,19 +31837,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>481.4297026814658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31996,7 +31998,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
         <v>699.5441750817575</v>
@@ -32072,22 +32074,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>618.3047484269334</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>211.7351844430268</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>689.3300812557325</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420756</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868563</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>318.3985571819322</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L27" t="n">
-        <v>242.2322097768135</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>488.722343634793</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>303.4297552732306</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>339.2956687594475</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35720,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>479.7503686470593</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>557.9883691723992</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648381</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>176.2645232599139</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L27" t="n">
-        <v>103.6778299969394</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902916</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295354</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295354</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295354</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295354</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295354</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>160.8335108287862</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3165932.150001144</v>
+        <v>3161919.539987151</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183.1670124162903</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>8.296101769922959</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -867,22 +867,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>121.6303968182409</v>
       </c>
       <c r="U4" t="n">
-        <v>68.15344371974265</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>135.1036918617007</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>32.97988876732144</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>35.00179869008758</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>53.75581462508175</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>74.2511672348987</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>408.6659743001517</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>13.33835225137438</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>71.50977901234262</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>53.82913822149973</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>26.1362719570587</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>102.9630220374172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>124.6209519256076</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>43.73846614325627</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2487,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>100.0416311957212</v>
       </c>
       <c r="T25" t="n">
-        <v>90.48716302792806</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>115.7063133373723</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>67.96934215963584</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>113.4877306469552</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444143</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.19083539427249</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.6019919131841</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1582.86133602681</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.898819086399</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,10 +4342,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261501</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285689</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.7644039315074</v>
+        <v>797.4834000772721</v>
       </c>
       <c r="C4" t="n">
-        <v>774.7644039315074</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1522.919219987755</v>
       </c>
       <c r="U4" t="n">
-        <v>1546.855613072372</v>
+        <v>1233.816353113399</v>
       </c>
       <c r="V4" t="n">
-        <v>1292.171124866485</v>
+        <v>979.1318649075118</v>
       </c>
       <c r="W4" t="n">
-        <v>1002.753954829525</v>
+        <v>979.1318649075118</v>
       </c>
       <c r="X4" t="n">
-        <v>774.7644039315074</v>
+        <v>979.1318649075118</v>
       </c>
       <c r="Y4" t="n">
-        <v>774.7644039315074</v>
+        <v>979.1318649075118</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943747</v>
+        <v>921.7704558796243</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943747</v>
+        <v>552.8079389392126</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>552.8079389392126</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>552.8079389392126</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>141.822034149605</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
         <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>826.5851666348717</v>
+        <v>980.7518458718749</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>811.8156629439681</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>661.6990235316323</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>513.7859299492392</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>366.8959824513288</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>199.1931458260478</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1591.479404021249</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1591.479404021249</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1336.794915815362</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.377745778402</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1047.377745778402</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y7" t="n">
-        <v>826.5851666348717</v>
+        <v>1162.400310702115</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>2342.888901953458</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392149</v>
+        <v>1973.926385013046</v>
       </c>
       <c r="D8" t="n">
-        <v>194.5422403324644</v>
+        <v>1615.660686406296</v>
       </c>
       <c r="E8" t="n">
-        <v>194.5422403324644</v>
+        <v>1229.872433808052</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>818.8865290184442</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2729.48874201758</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4889,16 +4889,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.3436713194226</v>
+        <v>1007.761086342349</v>
       </c>
       <c r="C10" t="n">
-        <v>626.3436713194226</v>
+        <v>838.8249034144422</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>688.7082640021065</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>540.7951704197134</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>393.905222921803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>226.202386296522</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>79.98519951437973</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>1410.202130316119</v>
       </c>
       <c r="Y10" t="n">
-        <v>807.9921361496623</v>
+        <v>1189.409551172589</v>
       </c>
     </row>
     <row r="11">
@@ -5020,61 +5020,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>542.9134462654469</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5260,52 +5260,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2565.513299557012</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3162.891787183563</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5477693179085</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900017</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776659</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3007.624207651098</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2838.688024723191</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2838.688024723191</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2690.774931140797</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309225</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024105</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4471.231687421534</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4182.156460765732</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3927.471972559845</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3410.065251624867</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3189.272672481337</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796739</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T25" t="n">
-        <v>4349.531439530215</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U25" t="n">
-        <v>4060.456212874413</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>3805.771724668526</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>3805.771724668526</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770509</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2330.088019603117</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2110.486554626058</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6466,19 +6466,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3807.864035926977</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6605733532803</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253734</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1432.091168225067</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1204.10161732705</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.30903818352</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3194.624135499465</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159223</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.272600329705</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>2978.613657539998</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>3606.211621094605</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>2567.280686761779</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>2913.946970978148</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>3511.3254586047</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>4138.923422159307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>4690.833152398593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>302.45403664168</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>160.7422054838781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>113.4176828771281</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>183.5599762991737</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>21.81301072096153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>101.682581879675</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>80.98465480592338</v>
       </c>
       <c r="T25" t="n">
-        <v>126.9182872993602</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>65.31997266427226</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.5536561769551</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>35.12774237125714</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.3938179578223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.982661438910668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>15.00954930701842</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>717232.2660989771</v>
+        <v>717232.2660989772</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>717232.2660989771</v>
+        <v>717232.2660989772</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312478</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287551</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680576</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26450,7 +26450,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809231.1486458952</v>
+        <v>-809231.1486458953</v>
       </c>
       <c r="C6" t="n">
         <v>519513.5970816975</v>
       </c>
       <c r="D6" t="n">
-        <v>519513.5970816975</v>
+        <v>519513.5970816973</v>
       </c>
       <c r="E6" t="n">
-        <v>267941.3068806878</v>
+        <v>267593.9276263299</v>
       </c>
       <c r="F6" t="n">
-        <v>593353.7686880428</v>
+        <v>593006.3894336857</v>
       </c>
       <c r="G6" t="n">
-        <v>593353.7686880428</v>
+        <v>593006.3894336858</v>
       </c>
       <c r="H6" t="n">
-        <v>593353.7686880425</v>
+        <v>593006.3894336857</v>
       </c>
       <c r="I6" t="n">
-        <v>593353.7686880422</v>
+        <v>593006.3894336852</v>
       </c>
       <c r="J6" t="n">
-        <v>375822.5662907651</v>
+        <v>375475.1870364082</v>
       </c>
       <c r="K6" t="n">
-        <v>593353.7686880424</v>
+        <v>593006.3894336855</v>
       </c>
       <c r="L6" t="n">
-        <v>593353.7686880424</v>
+        <v>593006.3894336857</v>
       </c>
       <c r="M6" t="n">
-        <v>508298.7407525307</v>
+        <v>507951.3614981736</v>
       </c>
       <c r="N6" t="n">
-        <v>593353.7686880423</v>
+        <v>593006.3894336857</v>
       </c>
       <c r="O6" t="n">
-        <v>593353.7686880426</v>
+        <v>593006.3894336856</v>
       </c>
       <c r="P6" t="n">
-        <v>593353.7686880422</v>
+        <v>593006.3894336856</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.5668292471903</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>377.9418368861306</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>97.91855245792827</v>
       </c>
       <c r="U4" t="n">
-        <v>218.0583944858702</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>219.5793497589823</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>377.941836886132</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>109.7532162242332</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>165.7931346510875</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>332.6248785068127</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>2.255751353301719</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>83.01406815846372</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>147.0748743397522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.759950151119559e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>438.5310889592611</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>618.3047484269334</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>689.3300812557325</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>399.1902208908131</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32572,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>318.3985571819322</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>510.682889626564</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34219,13 +34219,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>488.722343634793</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>300.6896499849021</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>479.7503686470593</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>557.9883691723992</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>176.2645232599139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5488557045456</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>395.0475418999253</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>350.1679638549188</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3161919.539987151</v>
+        <v>3163680.070289936</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>62.92930610001484</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.296101769922959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>180.7826255435606</v>
       </c>
       <c r="T4" t="n">
-        <v>121.6303968182409</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>32.97988876732144</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>63.63509288679442</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>35.00179869008758</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>95.81514163764196</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>408.6659743001517</v>
+        <v>299.4782125119776</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>13.33835225137438</v>
+        <v>13.33835225137433</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>26.1362719570587</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>253.3939228255689</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>100.0416311957212</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>78.9105100867805</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428168</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1295.715926185139</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1295.715926185139</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2051.278283189672</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>2051.278283189672</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4397,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4485,19 +4485,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,13 +4509,13 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1744.685835418229</v>
       </c>
       <c r="T4" t="n">
         <v>1522.919219987755</v>
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796243</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392126</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D5" t="n">
-        <v>552.8079389392126</v>
+        <v>552.807938939213</v>
       </c>
       <c r="E5" t="n">
-        <v>552.8079389392126</v>
+        <v>552.807938939213</v>
       </c>
       <c r="F5" t="n">
-        <v>141.822034149605</v>
+        <v>141.8220341496055</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>130.789988035006</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4582,22 +4582,22 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794323</v>
@@ -4640,25 +4640,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>980.7518458718749</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>811.8156629439681</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>661.6990235316323</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>513.7859299492392</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>366.8959824513288</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>199.1931458260478</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218339</v>
@@ -4728,13 +4728,13 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1830.511576737339</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882605</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>1383.192889845645</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>1162.400310702115</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2342.888901953458</v>
+        <v>2232.598233480555</v>
       </c>
       <c r="C8" t="n">
-        <v>1973.926385013046</v>
+        <v>1863.635716540143</v>
       </c>
       <c r="D8" t="n">
-        <v>1615.660686406296</v>
+        <v>1505.370017933393</v>
       </c>
       <c r="E8" t="n">
-        <v>1229.872433808052</v>
+        <v>1119.581765335148</v>
       </c>
       <c r="F8" t="n">
-        <v>818.8865290184442</v>
+        <v>708.595860545541</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y8" t="n">
-        <v>2729.48874201758</v>
+        <v>2619.198073544677</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4959,10 +4959,10 @@
         <v>79.98519951437973</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>454.6048385560544</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098242</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819173</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695815</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871884</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>369.499740389278</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>202.303641104158</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="14">
@@ -5260,52 +5260,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2345.91093085731</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2126.309465880251</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6363,19 +6363,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>114.1584408891651</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>33.12907551102214</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>80.98465480592338</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393068</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729390.5400014698</v>
+        <v>729390.5400014699</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>717232.2660989771</v>
+        <v>717232.2660989772</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287551</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815717</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26438,7 +26438,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809231.1486458953</v>
+        <v>-809231.1486458946</v>
       </c>
       <c r="C6" t="n">
         <v>519513.5970816975</v>
       </c>
       <c r="D6" t="n">
-        <v>519513.5970816973</v>
+        <v>519513.5970816975</v>
       </c>
       <c r="E6" t="n">
-        <v>267593.9276263299</v>
+        <v>267906.5689552518</v>
       </c>
       <c r="F6" t="n">
-        <v>593006.3894336857</v>
+        <v>593319.030762607</v>
       </c>
       <c r="G6" t="n">
-        <v>593006.3894336858</v>
+        <v>593319.030762607</v>
       </c>
       <c r="H6" t="n">
-        <v>593006.3894336857</v>
+        <v>593319.0307626065</v>
       </c>
       <c r="I6" t="n">
-        <v>593006.3894336852</v>
+        <v>593319.0307626069</v>
       </c>
       <c r="J6" t="n">
-        <v>375475.1870364082</v>
+        <v>375787.8283653295</v>
       </c>
       <c r="K6" t="n">
-        <v>593006.3894336855</v>
+        <v>593319.030762607</v>
       </c>
       <c r="L6" t="n">
-        <v>593006.3894336857</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="M6" t="n">
-        <v>507951.3614981736</v>
+        <v>508264.0028270948</v>
       </c>
       <c r="N6" t="n">
-        <v>593006.3894336857</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="O6" t="n">
-        <v>593006.3894336856</v>
+        <v>593319.0307626069</v>
       </c>
       <c r="P6" t="n">
-        <v>593006.3894336856</v>
+        <v>593319.0307626066</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>319.0010639722469</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.9418368861306</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8.986399787881311</v>
       </c>
       <c r="T4" t="n">
-        <v>97.91855245792827</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>377.941836886132</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>230.972671500526</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>109.7532162242332</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>190.3966965679709</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.255751353301719</v>
+        <v>111.4435131414759</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>83.01406815846372</v>
+        <v>83.01406815846376</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>351.1157147121648</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2742757378059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
